--- a/Data/Transitions/19081921Translation.xlsx
+++ b/Data/Transitions/19081921Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="651">
   <si>
     <t>id</t>
   </si>
@@ -127,7 +127,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4741146168705731}</t>
+    <t>{834.0: 0.47414514778800954}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -139,7 +139,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -163,13 +163,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -247,10 +247,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 1.0, 144.0: 0.008213749629680859}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 1.0, 144.0: 0.008213565408014333}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -268,10 +268,10 @@
     <t>{141.0: 0.7470256731371321}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -280,7 +280,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -349,10 +349,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.03254877942077172, 850.0: 0.0065536559720050964}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9674512205792283, 850.0: 0.19479509161951705}</t>
+    <t>{179.0: 1.0, 180.0: 0.02915132042943343, 850.0: 0.009625001531993029}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9708486795705665, 850.0: 0.32054877413941296}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -472,6 +472,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -490,7 +493,7 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -559,10 +562,10 @@
     <t>{686.0: 0.39664942103966494}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6992746637967333, 850.0: 0.25514017969128966}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6992746637967333, 850.0: 0.41838152688713853}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -619,7 +622,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7768290641218818}</t>
+    <t>{298.0: 0.7768166089965398}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -643,7 +646,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -658,7 +661,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -682,9 +685,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -694,7 +694,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -844,7 +844,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,7 +877,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.2644754603466771, 850.0: 0.09649758524127294}</t>
+    <t>{277.0: 0.2644754603466771, 850.0: 0.15823774641459926}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
@@ -925,13 +925,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.688038942976356}</t>
+    <t>{534.0: 0.7103938024531956}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -1006,7 +1006,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1039,13 +1039,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.8964618622832515}</t>
+    <t>{593.0: 0.8967309807057883}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{603.0: 0.518114955053119}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1099,7 +1099,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1174,7 +1174,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1246,13 +1246,13 @@
     <t>{730.0: 0.734187349879904, 289.0: 0.17008952080042128}</t>
   </si>
   <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1336,7 +1336,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1417,7 +1417,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1462,7 +1462,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.44701348747591524, 277.0: 0.03624987585658953}</t>
+    <t>{850.0: 0.09320695102685624, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{782.0: 0.044733262807919, 930.0: 0.0925121962135792}</t>
   </si>
   <si>
-    <t>{909.0: 0.5940957425838385}</t>
+    <t>{909.0: 0.5940772123747377}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1570,7 +1570,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.31196105702364396}</t>
+    <t>{534.0: 0.2896061975468044}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1579,7 +1579,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1630,16 +1630,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 593.0: 0.10353813771674852}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.14154999448792857}</t>
+    <t>{937.0: 1.0, 593.0: 0.10326901929421174}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.11631488359452849}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1690,7 +1690,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.1333273316528628}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1750,7 +1750,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432472, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
@@ -1783,7 +1783,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 850.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 850.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
@@ -1819,22 +1819,19 @@
     <t>{497.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434108, 850.0: 0.03624987585658953}</t>
-  </si>
-  <si>
     <t>{933.0: 1.0}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752852}</t>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1849,7 +1846,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.7620095020848972, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1903,7 +1900,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787177, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
@@ -1912,13 +1909,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414815, 486.0: 0.03103422505851863}</t>
+    <t>{837.0: 0.9689657749414812, 486.0: 0.03103422505851863}</t>
   </si>
   <si>
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{850.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{850.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -1948,13 +1945,13 @@
     <t>{933.0: 0.998879986215215, 702.0: 0.0011200137847850436}</t>
   </si>
   <si>
-    <t>{937.0: 0.6599736668861093, 593.0: 0.34002633311389063}</t>
+    <t>{937.0: 0.6643924626380766, 593.0: 0.3356075373619233}</t>
   </si>
   <si>
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
+    <t>{940.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1963,7 +1960,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.3049207329627342}</t>
@@ -3985,7 +3982,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3996,7 +3993,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4018,7 +4015,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4051,29 +4048,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>584</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>584</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4084,7 +4081,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4106,40 +4103,40 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>585</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4161,7 +4158,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4183,7 +4180,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4194,7 +4191,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4216,29 +4213,29 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>586</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>586</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4249,7 +4246,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4282,7 +4279,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4293,51 +4290,51 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>587</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>589</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4348,7 +4345,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4370,7 +4367,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4381,7 +4378,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4392,7 +4389,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4403,7 +4400,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4414,7 +4411,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4425,29 +4422,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>590</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>590</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4458,51 +4455,51 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>591</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>591</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>570</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4524,29 +4521,29 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>592</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4568,7 +4565,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4590,7 +4587,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4612,29 +4609,29 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>593</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>210</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4645,51 +4642,51 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>594</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>595</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>595</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4700,7 +4697,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4711,7 +4708,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4733,7 +4730,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4744,7 +4741,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4755,7 +4752,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5509,7 +5506,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5575,7 +5572,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5652,7 +5649,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5674,7 +5671,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5740,7 +5737,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5828,7 +5825,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5839,7 +5836,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5971,7 +5968,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6070,7 +6067,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6169,7 +6166,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6180,7 +6177,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6290,7 +6287,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6334,7 +6331,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6433,7 +6430,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6444,7 +6441,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6455,7 +6452,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6499,7 +6496,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6565,7 +6562,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6653,7 +6650,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6708,7 +6705,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6741,7 +6738,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6807,7 +6804,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6818,7 +6815,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6829,7 +6826,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6851,7 +6848,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6862,7 +6859,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6873,7 +6870,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6939,7 +6936,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6950,7 +6947,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6983,7 +6980,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7027,7 +7024,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7049,7 +7046,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7093,7 +7090,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7346,7 +7343,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7379,7 +7376,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7489,7 +7486,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7500,7 +7497,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7621,7 +7618,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7665,7 +7662,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7808,7 +7805,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7907,7 +7904,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7940,7 +7937,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7951,7 +7948,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7962,7 +7959,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8017,7 +8014,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8028,7 +8025,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8083,7 +8080,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8160,7 +8157,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8193,7 +8190,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8237,7 +8234,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -8248,7 +8245,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8270,7 +8267,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8336,7 +8333,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -8369,7 +8366,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -8413,7 +8410,7 @@
         <v>554</v>
       </c>
       <c r="C553" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -8446,7 +8443,7 @@
         <v>557</v>
       </c>
       <c r="C556" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -8457,7 +8454,7 @@
         <v>558</v>
       </c>
       <c r="C557" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="558" spans="1:3">
